--- a/data/pca/factorExposure/factorExposure_2016-10-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-10-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01453881222855366</v>
+        <v>0.01221448442710632</v>
       </c>
       <c r="C2">
-        <v>-0.04657443689181628</v>
+        <v>0.03979557363509532</v>
       </c>
       <c r="D2">
-        <v>0.03299682183715835</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06107450662037474</v>
+      </c>
+      <c r="E2">
+        <v>0.04914055403311477</v>
+      </c>
+      <c r="F2">
+        <v>-0.08637276722068364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.05562062860751166</v>
+        <v>0.03254065856561131</v>
       </c>
       <c r="C3">
-        <v>-0.09522662002269026</v>
+        <v>0.08190298725636255</v>
       </c>
       <c r="D3">
-        <v>0.05726814757411656</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09895809847127982</v>
+      </c>
+      <c r="E3">
+        <v>0.07314809901097027</v>
+      </c>
+      <c r="F3">
+        <v>-0.0297827338650004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06293059343257791</v>
+        <v>0.05538029105199789</v>
       </c>
       <c r="C4">
-        <v>-0.05842759096914338</v>
+        <v>0.06305745234954503</v>
       </c>
       <c r="D4">
-        <v>0.02344852860488371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05959092687356043</v>
+      </c>
+      <c r="E4">
+        <v>0.04473988760895204</v>
+      </c>
+      <c r="F4">
+        <v>-0.07880038853474711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.02917990590570414</v>
+        <v>0.03394389270101526</v>
       </c>
       <c r="C6">
-        <v>-0.0427430726380721</v>
+        <v>0.03512250814450103</v>
       </c>
       <c r="D6">
-        <v>0.02717394880732097</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06562734044817894</v>
+      </c>
+      <c r="E6">
+        <v>0.05802184326196866</v>
+      </c>
+      <c r="F6">
+        <v>-0.07013171358063966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.02417843841682204</v>
+        <v>0.02010911342857839</v>
       </c>
       <c r="C7">
-        <v>-0.03760873290210978</v>
+        <v>0.0359684433197934</v>
       </c>
       <c r="D7">
-        <v>-0.002659626164610748</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03810421443097202</v>
+      </c>
+      <c r="E7">
+        <v>0.0324033549366006</v>
+      </c>
+      <c r="F7">
+        <v>-0.1119361043313864</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.001028667054726121</v>
+        <v>0.005152581450111522</v>
       </c>
       <c r="C8">
-        <v>-0.01200486837462998</v>
+        <v>0.01898174415968959</v>
       </c>
       <c r="D8">
-        <v>0.01384884941171134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03446451848778437</v>
+      </c>
+      <c r="E8">
+        <v>0.03552884111302126</v>
+      </c>
+      <c r="F8">
+        <v>-0.05514032101354371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.02869379680975568</v>
+        <v>0.03474456881844244</v>
       </c>
       <c r="C9">
-        <v>-0.04221488539318227</v>
+        <v>0.04921946516466223</v>
       </c>
       <c r="D9">
-        <v>0.01852415549530341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0438887124822301</v>
+      </c>
+      <c r="E9">
+        <v>0.03699575633762688</v>
+      </c>
+      <c r="F9">
+        <v>-0.08740031339642509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07729046385786988</v>
+        <v>0.1022871886658175</v>
       </c>
       <c r="C10">
-        <v>0.1943030355680569</v>
+        <v>-0.1895112698342789</v>
       </c>
       <c r="D10">
-        <v>0.0117439152932608</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.001612911939967939</v>
+      </c>
+      <c r="E10">
+        <v>0.04158541558262416</v>
+      </c>
+      <c r="F10">
+        <v>-0.03925138043315184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.0412604727401642</v>
+        <v>0.03500777608332307</v>
       </c>
       <c r="C11">
-        <v>-0.05444404845377192</v>
+        <v>0.05119461127962364</v>
       </c>
       <c r="D11">
-        <v>-0.0003213249312554784</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03292171954484092</v>
+      </c>
+      <c r="E11">
+        <v>0.004701293378222603</v>
+      </c>
+      <c r="F11">
+        <v>-0.06571535246703883</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03551990813991846</v>
+        <v>0.03559110872459571</v>
       </c>
       <c r="C12">
-        <v>-0.04418474612860558</v>
+        <v>0.04597170192381422</v>
       </c>
       <c r="D12">
-        <v>0.001457676359753339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.0255881633649187</v>
+      </c>
+      <c r="E12">
+        <v>0.01327932548928424</v>
+      </c>
+      <c r="F12">
+        <v>-0.06686637829550229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.0110184362413395</v>
+        <v>0.0109189287817892</v>
       </c>
       <c r="C13">
-        <v>-0.04297340789282384</v>
+        <v>0.04111267936177353</v>
       </c>
       <c r="D13">
-        <v>0.02334714927567151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06528632513030479</v>
+      </c>
+      <c r="E13">
+        <v>0.06393305733935134</v>
+      </c>
+      <c r="F13">
+        <v>-0.1166343538942097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.007912209480423605</v>
+        <v>0.004957797397003378</v>
       </c>
       <c r="C14">
-        <v>-0.03145741845237755</v>
+        <v>0.02904386021813277</v>
       </c>
       <c r="D14">
-        <v>-0.01331716403884583</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03004837312415277</v>
+      </c>
+      <c r="E14">
+        <v>0.02447719252057382</v>
+      </c>
+      <c r="F14">
+        <v>-0.0979708258632825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001452818305159733</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.001053676205513771</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.001708638079801099</v>
+      </c>
+      <c r="E15">
+        <v>-6.655044544256253e-05</v>
+      </c>
+      <c r="F15">
+        <v>-0.0009469272570222974</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03547248993107736</v>
+        <v>0.03228758047111286</v>
       </c>
       <c r="C16">
-        <v>-0.03898000706152738</v>
+        <v>0.0446555291928089</v>
       </c>
       <c r="D16">
-        <v>0.006051457157011521</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02811087527832551</v>
+      </c>
+      <c r="E16">
+        <v>0.01876616435872888</v>
+      </c>
+      <c r="F16">
+        <v>-0.06944892619951003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.03047517665894991</v>
+        <v>0.01646407788297821</v>
       </c>
       <c r="C19">
-        <v>-0.06031798294720023</v>
+        <v>0.05014736563440524</v>
       </c>
       <c r="D19">
-        <v>0.07080773925486396</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1035158491681298</v>
+      </c>
+      <c r="E19">
+        <v>0.08305914879127868</v>
+      </c>
+      <c r="F19">
+        <v>-0.1058211701769512</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01444044513448708</v>
+        <v>0.01261122179082268</v>
       </c>
       <c r="C20">
-        <v>-0.04313126917605681</v>
+        <v>0.03972880203693008</v>
       </c>
       <c r="D20">
-        <v>0.02006989920517251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04129026599825976</v>
+      </c>
+      <c r="E20">
+        <v>0.05508550038940906</v>
+      </c>
+      <c r="F20">
+        <v>-0.09179798324801187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01016015126945226</v>
+        <v>0.005631236118354434</v>
       </c>
       <c r="C21">
-        <v>-0.04694068723658984</v>
+        <v>0.04153020541698479</v>
       </c>
       <c r="D21">
-        <v>0.0414113136372662</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07097814976398065</v>
+      </c>
+      <c r="E21">
+        <v>0.06589589539484492</v>
+      </c>
+      <c r="F21">
+        <v>-0.1327508718633519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.002392715615853853</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.01548319282669627</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03031753432969168</v>
+      </c>
+      <c r="E22">
+        <v>0.01227809827282972</v>
+      </c>
+      <c r="F22">
+        <v>-0.0124818683576484</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.00245292601453272</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.01550440579438773</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.02998597970369027</v>
+      </c>
+      <c r="E23">
+        <v>0.01248622524262927</v>
+      </c>
+      <c r="F23">
+        <v>-0.01220477240418443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.03011533634070952</v>
+        <v>0.0310122912569263</v>
       </c>
       <c r="C24">
-        <v>-0.04610666901044998</v>
+        <v>0.05125246508507118</v>
       </c>
       <c r="D24">
-        <v>0.001866716591194234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02604913422104603</v>
+      </c>
+      <c r="E24">
+        <v>0.01453005022494314</v>
+      </c>
+      <c r="F24">
+        <v>-0.07600098721307832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04689602745385813</v>
+        <v>0.04160103168809545</v>
       </c>
       <c r="C25">
-        <v>-0.05687365438500666</v>
+        <v>0.05735883350100497</v>
       </c>
       <c r="D25">
-        <v>-0.01034957604542556</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02360173782062816</v>
+      </c>
+      <c r="E25">
+        <v>0.01113398999982003</v>
+      </c>
+      <c r="F25">
+        <v>-0.07819586701220529</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01024704028843416</v>
+        <v>0.01261705905110434</v>
       </c>
       <c r="C26">
-        <v>-0.0167482537024636</v>
+        <v>0.01555268052550921</v>
       </c>
       <c r="D26">
-        <v>0.00948153978883756</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02589320105900166</v>
+      </c>
+      <c r="E26">
+        <v>0.02563193798415851</v>
+      </c>
+      <c r="F26">
+        <v>-0.07509227346964313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.08864820090091446</v>
+        <v>0.1348220211714315</v>
       </c>
       <c r="C28">
-        <v>0.2210653064812179</v>
+        <v>-0.2370499930420557</v>
       </c>
       <c r="D28">
-        <v>0.005159951752699984</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01695246425458377</v>
+      </c>
+      <c r="E28">
+        <v>0.0417870739236014</v>
+      </c>
+      <c r="F28">
+        <v>-0.05055145666222072</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01284160031601197</v>
+        <v>0.006263542622553218</v>
       </c>
       <c r="C29">
-        <v>-0.02444006770581888</v>
+        <v>0.02530224912570568</v>
       </c>
       <c r="D29">
-        <v>-0.0113771872053198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02100055276698043</v>
+      </c>
+      <c r="E29">
+        <v>0.02727725991866363</v>
+      </c>
+      <c r="F29">
+        <v>-0.08759400117237542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05121009285711273</v>
+        <v>0.03774339158105024</v>
       </c>
       <c r="C30">
-        <v>-0.0654382907319818</v>
+        <v>0.06167506520937355</v>
       </c>
       <c r="D30">
-        <v>0.04302627004955861</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.10406266360518</v>
+      </c>
+      <c r="E30">
+        <v>0.03563906661933623</v>
+      </c>
+      <c r="F30">
+        <v>-0.1006165598842609</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04266025265952059</v>
+        <v>0.05305435025209078</v>
       </c>
       <c r="C31">
-        <v>-0.03132749760217</v>
+        <v>0.04959399249820032</v>
       </c>
       <c r="D31">
-        <v>-0.0147204980701379</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003778230149839712</v>
+      </c>
+      <c r="E31">
+        <v>0.04239552379137494</v>
+      </c>
+      <c r="F31">
+        <v>-0.08255916921547923</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.001268441886454408</v>
+        <v>0.0031256613420375</v>
       </c>
       <c r="C32">
-        <v>-0.04753266555008913</v>
+        <v>0.03019097538720819</v>
       </c>
       <c r="D32">
-        <v>0.02737606407969827</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05164709330465965</v>
+      </c>
+      <c r="E32">
+        <v>0.01945428116518599</v>
+      </c>
+      <c r="F32">
+        <v>-0.07083587764720913</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.0278712034827106</v>
+        <v>0.02380746688546753</v>
       </c>
       <c r="C33">
-        <v>-0.0607446090147153</v>
+        <v>0.05190072699547549</v>
       </c>
       <c r="D33">
-        <v>0.02630944292493387</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08090574726423549</v>
+      </c>
+      <c r="E33">
+        <v>0.04764344727344406</v>
+      </c>
+      <c r="F33">
+        <v>-0.1293832659407234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.05083700257042498</v>
+        <v>0.04040214105886562</v>
       </c>
       <c r="C34">
-        <v>-0.05475392381159229</v>
+        <v>0.06350944387906114</v>
       </c>
       <c r="D34">
-        <v>-0.009003583222370508</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.0331449291453061</v>
+      </c>
+      <c r="E34">
+        <v>-0.004782826429700725</v>
+      </c>
+      <c r="F34">
+        <v>-0.07540209292071091</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.008833393978070776</v>
+        <v>0.01391027992101211</v>
       </c>
       <c r="C36">
-        <v>-0.01106457050856553</v>
+        <v>0.01012289426134164</v>
       </c>
       <c r="D36">
-        <v>0.007177592410246842</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02770255817761492</v>
+      </c>
+      <c r="E36">
+        <v>0.03288761378786478</v>
+      </c>
+      <c r="F36">
+        <v>-0.08407493438671317</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.03225608803113342</v>
+        <v>0.02612622351168217</v>
       </c>
       <c r="C38">
-        <v>-0.02412546552496228</v>
+        <v>0.02253013084157419</v>
       </c>
       <c r="D38">
-        <v>-0.0005591280286184883</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02680650864677902</v>
+      </c>
+      <c r="E38">
+        <v>0.03467942111803959</v>
+      </c>
+      <c r="F38">
+        <v>-0.07091300872443343</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04215595952880405</v>
+        <v>0.03663546479161412</v>
       </c>
       <c r="C39">
-        <v>-0.07041039584754422</v>
+        <v>0.0665586667634733</v>
       </c>
       <c r="D39">
-        <v>0.02486678643480829</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05128452565957618</v>
+      </c>
+      <c r="E39">
+        <v>0.01663498199159517</v>
+      </c>
+      <c r="F39">
+        <v>-0.0915521879393328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01818124178010683</v>
+        <v>0.0158289918112927</v>
       </c>
       <c r="C40">
-        <v>-0.02755832543688141</v>
+        <v>0.03591051803847104</v>
       </c>
       <c r="D40">
-        <v>0.03578879164640515</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03921862171723214</v>
+      </c>
+      <c r="E40">
+        <v>0.06997689327487297</v>
+      </c>
+      <c r="F40">
+        <v>-0.09074001971363256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01079877875427166</v>
+        <v>0.01824748446553136</v>
       </c>
       <c r="C41">
-        <v>-0.002874760793651085</v>
+        <v>0.003929782196793021</v>
       </c>
       <c r="D41">
-        <v>0.0009645539276925411</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01746242857347765</v>
+      </c>
+      <c r="E41">
+        <v>0.03507798176374493</v>
+      </c>
+      <c r="F41">
+        <v>-0.07426835567858456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.006563645690484104</v>
+        <v>0.003527262388419556</v>
       </c>
       <c r="C42">
-        <v>-0.01396966322898862</v>
+        <v>0.007979388537117238</v>
       </c>
       <c r="D42">
-        <v>0.007620114906213232</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.001682316557232355</v>
+      </c>
+      <c r="E42">
+        <v>0.004263763101806906</v>
+      </c>
+      <c r="F42">
+        <v>0.01322654511908562</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03212305354689248</v>
+        <v>0.02990991462716662</v>
       </c>
       <c r="C43">
-        <v>-0.01622022452581696</v>
+        <v>0.01835846589295061</v>
       </c>
       <c r="D43">
-        <v>0.008540440214619475</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0420424541999829</v>
+      </c>
+      <c r="E43">
+        <v>0.04006510809749773</v>
+      </c>
+      <c r="F43">
+        <v>-0.08878526807262196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.01954866517169189</v>
+        <v>0.0150805285793772</v>
       </c>
       <c r="C44">
-        <v>-0.05507473192071451</v>
+        <v>0.04956740165589001</v>
       </c>
       <c r="D44">
-        <v>0.01743712202305714</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04196205344921481</v>
+      </c>
+      <c r="E44">
+        <v>0.05671811017294608</v>
+      </c>
+      <c r="F44">
+        <v>-0.0955433706866157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0007169592978685462</v>
+        <v>0.006982338233862088</v>
       </c>
       <c r="C46">
-        <v>-0.01881605050873936</v>
+        <v>0.02285419457172758</v>
       </c>
       <c r="D46">
-        <v>-0.01303535296540678</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01413254290863327</v>
+      </c>
+      <c r="E46">
+        <v>0.0309313577545453</v>
+      </c>
+      <c r="F46">
+        <v>-0.1023402411811826</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.07683158052658148</v>
+        <v>0.08500089585086378</v>
       </c>
       <c r="C47">
-        <v>-0.07179700114875477</v>
+        <v>0.07715042680478834</v>
       </c>
       <c r="D47">
-        <v>-0.01163270645814424</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01202285437730413</v>
+      </c>
+      <c r="E47">
+        <v>0.04949771515006109</v>
+      </c>
+      <c r="F47">
+        <v>-0.08058707863897481</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01972062374109044</v>
+        <v>0.01529068180652759</v>
       </c>
       <c r="C48">
-        <v>-0.0103886174800082</v>
+        <v>0.01562942319059212</v>
       </c>
       <c r="D48">
-        <v>0.001382404813435475</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01794539803659187</v>
+      </c>
+      <c r="E48">
+        <v>0.0422031736161671</v>
+      </c>
+      <c r="F48">
+        <v>-0.09687777166568834</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08772201867499381</v>
+        <v>0.07126125519090361</v>
       </c>
       <c r="C50">
-        <v>-0.06700583357863721</v>
+        <v>0.06821559608567564</v>
       </c>
       <c r="D50">
-        <v>-0.01730393632705831</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.001792438605401738</v>
+      </c>
+      <c r="E50">
+        <v>0.04745981942047364</v>
+      </c>
+      <c r="F50">
+        <v>-0.06816379923759167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01195510192016271</v>
+        <v>0.009265289985790478</v>
       </c>
       <c r="C51">
-        <v>-0.04600467451446366</v>
+        <v>0.03347489078440587</v>
       </c>
       <c r="D51">
-        <v>0.008036004205366305</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04875960812452263</v>
+      </c>
+      <c r="E51">
+        <v>0.01917025522257342</v>
+      </c>
+      <c r="F51">
+        <v>-0.08793170036013327</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.09314726251215781</v>
+        <v>0.09089050549578431</v>
       </c>
       <c r="C53">
-        <v>-0.07512435983074632</v>
+        <v>0.08778386261280603</v>
       </c>
       <c r="D53">
-        <v>-0.03819086989160049</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03986739240589128</v>
+      </c>
+      <c r="E53">
+        <v>0.0494634082676771</v>
+      </c>
+      <c r="F53">
+        <v>-0.08839285108027393</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03030188429536694</v>
+        <v>0.0283761491424545</v>
       </c>
       <c r="C54">
-        <v>-0.01552267417082447</v>
+        <v>0.02519486265528445</v>
       </c>
       <c r="D54">
-        <v>0.008895674716391416</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03496313453619636</v>
+      </c>
+      <c r="E54">
+        <v>0.035818926126242</v>
+      </c>
+      <c r="F54">
+        <v>-0.09895667840867572</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07368404962025536</v>
+        <v>0.08202825002772575</v>
       </c>
       <c r="C55">
-        <v>-0.06939784452159803</v>
+        <v>0.07143426033770878</v>
       </c>
       <c r="D55">
-        <v>-0.03993060714288797</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04744269374724557</v>
+      </c>
+      <c r="E55">
+        <v>0.04048620044223394</v>
+      </c>
+      <c r="F55">
+        <v>-0.06259321868676007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1490177258156014</v>
+        <v>0.1444521688238443</v>
       </c>
       <c r="C56">
-        <v>-0.09422691299575733</v>
+        <v>0.1046786736790179</v>
       </c>
       <c r="D56">
-        <v>-0.04299581306174752</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04976793092447473</v>
+      </c>
+      <c r="E56">
+        <v>0.047537766475096</v>
+      </c>
+      <c r="F56">
+        <v>-0.05486783563310049</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.004731926940332866</v>
+        <v>0.001984876789801921</v>
       </c>
       <c r="C57">
-        <v>-0.002998915868213997</v>
+        <v>0.001679744660495803</v>
       </c>
       <c r="D57">
-        <v>0.01917025851574326</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.0165280310336016</v>
+      </c>
+      <c r="E57">
+        <v>0.008383909083049507</v>
+      </c>
+      <c r="F57">
+        <v>-0.01380520171062117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07608718817167864</v>
+        <v>0.03146214220250675</v>
       </c>
       <c r="C58">
-        <v>-0.04163444591515274</v>
+        <v>0.0300623739151545</v>
       </c>
       <c r="D58">
-        <v>0.9461525298379646</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4965557623764116</v>
+      </c>
+      <c r="E58">
+        <v>0.6957288268289046</v>
+      </c>
+      <c r="F58">
+        <v>0.4285594229291981</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1348697500071768</v>
+        <v>0.1493716275051963</v>
       </c>
       <c r="C59">
-        <v>0.2043423241075257</v>
+        <v>-0.18816663482674</v>
       </c>
       <c r="D59">
-        <v>0.02259993608724415</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02950894529911874</v>
+      </c>
+      <c r="E59">
+        <v>0.02186202714822686</v>
+      </c>
+      <c r="F59">
+        <v>-0.02207208264902754</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3154919099361262</v>
+        <v>0.2815657312043956</v>
       </c>
       <c r="C60">
-        <v>-0.0796062213264217</v>
+        <v>0.1016121292819334</v>
       </c>
       <c r="D60">
-        <v>0.004439539372846338</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2105353051677764</v>
+      </c>
+      <c r="E60">
+        <v>-0.2757040317724004</v>
+      </c>
+      <c r="F60">
+        <v>0.1269672192949108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03742306083266448</v>
+        <v>0.03903622818369207</v>
       </c>
       <c r="C61">
-        <v>-0.06116220590027111</v>
+        <v>0.06058045429465512</v>
       </c>
       <c r="D61">
-        <v>0.01471154273065884</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04651815663141697</v>
+      </c>
+      <c r="E61">
+        <v>0.02207815585801557</v>
+      </c>
+      <c r="F61">
+        <v>-0.08235124734396534</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01383393920879276</v>
+        <v>0.01477625152277498</v>
       </c>
       <c r="C63">
-        <v>-0.03584978210172799</v>
+        <v>0.03082744817613129</v>
       </c>
       <c r="D63">
-        <v>-0.003529018724181308</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02147114940878525</v>
+      </c>
+      <c r="E63">
+        <v>0.03616419936442905</v>
+      </c>
+      <c r="F63">
+        <v>-0.07601764620200874</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.0492220403491773</v>
+        <v>0.05369213509911557</v>
       </c>
       <c r="C64">
-        <v>-0.02831631220711516</v>
+        <v>0.05235208161981743</v>
       </c>
       <c r="D64">
-        <v>-0.003672721687138512</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01137038697994526</v>
+      </c>
+      <c r="E64">
+        <v>0.01782944723862282</v>
+      </c>
+      <c r="F64">
+        <v>-0.08743926664801478</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09473380468773912</v>
+        <v>0.0674219806523027</v>
       </c>
       <c r="C65">
-        <v>-0.0470822521248278</v>
+        <v>0.04091141739050661</v>
       </c>
       <c r="D65">
-        <v>0.03097446296674752</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08126655042972804</v>
+      </c>
+      <c r="E65">
+        <v>0.03570145218409063</v>
+      </c>
+      <c r="F65">
+        <v>-0.02593790153302874</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.06541928912150025</v>
+        <v>0.04952015648169869</v>
       </c>
       <c r="C66">
-        <v>-0.1068117950984193</v>
+        <v>0.09012938200222406</v>
       </c>
       <c r="D66">
-        <v>0.02993521868822294</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07732575160686597</v>
+      </c>
+      <c r="E66">
+        <v>0.02035954814401257</v>
+      </c>
+      <c r="F66">
+        <v>-0.09251109774091661</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05633467528701139</v>
+        <v>0.04859924956810672</v>
       </c>
       <c r="C67">
-        <v>-0.02955614497327174</v>
+        <v>0.02934063099277611</v>
       </c>
       <c r="D67">
-        <v>-0.009851692978620083</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0146524864194072</v>
+      </c>
+      <c r="E67">
+        <v>0.01994917826153828</v>
+      </c>
+      <c r="F67">
+        <v>-0.05769933039035482</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1166368884639192</v>
+        <v>0.1574457775808501</v>
       </c>
       <c r="C68">
-        <v>0.2869647843538939</v>
+        <v>-0.2566056238925883</v>
       </c>
       <c r="D68">
-        <v>0.000627410868785921</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02145501103261145</v>
+      </c>
+      <c r="E68">
+        <v>0.0362868142715787</v>
+      </c>
+      <c r="F68">
+        <v>-0.01691347968852477</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08606140031871515</v>
+        <v>0.08507002486313495</v>
       </c>
       <c r="C69">
-        <v>-0.06708384439384053</v>
+        <v>0.08311390554934976</v>
       </c>
       <c r="D69">
-        <v>-0.03736101807726085</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008634962709826961</v>
+      </c>
+      <c r="E69">
+        <v>0.02312645178535293</v>
+      </c>
+      <c r="F69">
+        <v>-0.09504161419819701</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1229192795465268</v>
+        <v>0.1451915950804241</v>
       </c>
       <c r="C71">
-        <v>0.2465238841746586</v>
+        <v>-0.231171621724639</v>
       </c>
       <c r="D71">
-        <v>0.0188400032412617</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.0123942588397488</v>
+      </c>
+      <c r="E71">
+        <v>0.05390882006205604</v>
+      </c>
+      <c r="F71">
+        <v>-0.05482790690108284</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08300260734008874</v>
+        <v>0.09495212275634211</v>
       </c>
       <c r="C72">
-        <v>-0.0487835556947375</v>
+        <v>0.05520660379159064</v>
       </c>
       <c r="D72">
-        <v>-0.02075332208717238</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01684294222358359</v>
+      </c>
+      <c r="E72">
+        <v>0.00704697477221619</v>
+      </c>
+      <c r="F72">
+        <v>-0.076913673230283</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4424960784519065</v>
+        <v>0.3475846806968546</v>
       </c>
       <c r="C73">
-        <v>-0.06045351995765737</v>
+        <v>0.08538002293680065</v>
       </c>
       <c r="D73">
-        <v>0.06943266358356981</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4308600123425945</v>
+      </c>
+      <c r="E73">
+        <v>-0.4771641550669758</v>
+      </c>
+      <c r="F73">
+        <v>0.304763541844537</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1192894454747632</v>
+        <v>0.1113099178604678</v>
       </c>
       <c r="C74">
-        <v>-0.1146476564980364</v>
+        <v>0.1031629185708536</v>
       </c>
       <c r="D74">
-        <v>-0.01741042384816453</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.027374272410789</v>
+      </c>
+      <c r="E74">
+        <v>0.06678118971958015</v>
+      </c>
+      <c r="F74">
+        <v>-0.06240205948230062</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2580469718862345</v>
+        <v>0.2556946796289041</v>
       </c>
       <c r="C75">
-        <v>-0.1315054451349122</v>
+        <v>0.145695959906469</v>
       </c>
       <c r="D75">
-        <v>-0.07708126128194845</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1280018397771283</v>
+      </c>
+      <c r="E75">
+        <v>0.08084569869948555</v>
+      </c>
+      <c r="F75">
+        <v>-0.02739765418540185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1179892337900174</v>
+        <v>0.1266142921951078</v>
       </c>
       <c r="C76">
-        <v>-0.1072995336644782</v>
+        <v>0.108049527361244</v>
       </c>
       <c r="D76">
-        <v>-0.05285048605412873</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06123915295146207</v>
+      </c>
+      <c r="E76">
+        <v>0.06851863971695792</v>
+      </c>
+      <c r="F76">
+        <v>-0.0690865560631239</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.0750022383611805</v>
+        <v>0.06029217251685273</v>
       </c>
       <c r="C77">
-        <v>-0.05911677592478909</v>
+        <v>0.06744117661984399</v>
       </c>
       <c r="D77">
-        <v>0.04549437204113717</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06520609305757893</v>
+      </c>
+      <c r="E77">
+        <v>0.06374683393403324</v>
+      </c>
+      <c r="F77">
+        <v>-0.1227633181746012</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04340848534957999</v>
+        <v>0.03940552461768235</v>
       </c>
       <c r="C78">
-        <v>-0.0442675942558188</v>
+        <v>0.05214015080069541</v>
       </c>
       <c r="D78">
-        <v>0.01524627139088725</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07190666759613143</v>
+      </c>
+      <c r="E78">
+        <v>0.01393506671168278</v>
+      </c>
+      <c r="F78">
+        <v>-0.0957354891023228</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01627543592011934</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03340897271863821</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05478281697090175</v>
+      </c>
+      <c r="E79">
+        <v>0.03575290800448989</v>
+      </c>
+      <c r="F79">
+        <v>-0.02498839359580193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04860518875416581</v>
+        <v>0.03443956993853117</v>
       </c>
       <c r="C80">
-        <v>-0.05127362438778258</v>
+        <v>0.04989000333725292</v>
       </c>
       <c r="D80">
-        <v>0.03655519299408246</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0485388947753766</v>
+      </c>
+      <c r="E80">
+        <v>0.01133687929484984</v>
+      </c>
+      <c r="F80">
+        <v>-0.03460462227602105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1395442465906657</v>
+        <v>0.1395570799978246</v>
       </c>
       <c r="C81">
-        <v>-0.08258576698612638</v>
+        <v>0.09949492095199015</v>
       </c>
       <c r="D81">
-        <v>-0.03618558480096037</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09098179127445861</v>
+      </c>
+      <c r="E81">
+        <v>0.0799060776036367</v>
+      </c>
+      <c r="F81">
+        <v>-0.03086790052376568</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.07105400813295332</v>
+        <v>0.1908065088596985</v>
       </c>
       <c r="C82">
-        <v>-0.04673246647320119</v>
+        <v>0.1405572183426484</v>
       </c>
       <c r="D82">
-        <v>-0.02827432317444444</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2244491692240463</v>
+      </c>
+      <c r="E82">
+        <v>0.009641755428214957</v>
+      </c>
+      <c r="F82">
+        <v>-0.07989537769458338</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.02608809128863216</v>
+        <v>0.02626595884614992</v>
       </c>
       <c r="C83">
-        <v>-0.02077670852460967</v>
+        <v>0.03775614497399833</v>
       </c>
       <c r="D83">
-        <v>0.015703208905692</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03317441799636151</v>
+      </c>
+      <c r="E83">
+        <v>0.0071957506294923</v>
+      </c>
+      <c r="F83">
+        <v>-0.05266874100082736</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2370602490847841</v>
+        <v>0.2052041504469115</v>
       </c>
       <c r="C85">
-        <v>-0.1186722368730806</v>
+        <v>0.1278086573923833</v>
       </c>
       <c r="D85">
-        <v>-0.1453541000435123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1061128640509572</v>
+      </c>
+      <c r="E85">
+        <v>0.004695268606106365</v>
+      </c>
+      <c r="F85">
+        <v>0.01725027944414817</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.009866742323380471</v>
+        <v>0.01143265131389011</v>
       </c>
       <c r="C86">
-        <v>-0.01960409511826872</v>
+        <v>0.03080261654747059</v>
       </c>
       <c r="D86">
-        <v>0.03610785699881337</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07663645380624221</v>
+      </c>
+      <c r="E86">
+        <v>0.04500918326410691</v>
+      </c>
+      <c r="F86">
+        <v>-0.1458952254261304</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.01385062819801912</v>
+        <v>0.01887564432447308</v>
       </c>
       <c r="C87">
-        <v>-0.02308785057704459</v>
+        <v>0.01727779203061383</v>
       </c>
       <c r="D87">
-        <v>0.07693139592998807</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08860794291032131</v>
+      </c>
+      <c r="E87">
+        <v>0.08035431252875461</v>
+      </c>
+      <c r="F87">
+        <v>-0.09484570745416185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1031980329284379</v>
+        <v>0.08846089188456703</v>
       </c>
       <c r="C88">
-        <v>-0.06909137306133661</v>
+        <v>0.06374204409089872</v>
       </c>
       <c r="D88">
-        <v>-0.01232589500667918</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01325366423286686</v>
+      </c>
+      <c r="E88">
+        <v>0.02965779186716883</v>
+      </c>
+      <c r="F88">
+        <v>-0.07429502572701044</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1884865879983325</v>
+        <v>0.2282776059751285</v>
       </c>
       <c r="C89">
-        <v>0.3772791294835148</v>
+        <v>-0.382964232157298</v>
       </c>
       <c r="D89">
-        <v>-0.03228067104235448</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02049211157795707</v>
+      </c>
+      <c r="E89">
+        <v>0.02962837496119404</v>
+      </c>
+      <c r="F89">
+        <v>-0.09802634576416855</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1750539991061359</v>
+        <v>0.2075244160113067</v>
       </c>
       <c r="C90">
-        <v>0.348964951905687</v>
+        <v>-0.3169159601167272</v>
       </c>
       <c r="D90">
-        <v>0.007706307705101163</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01594402374567541</v>
+      </c>
+      <c r="E90">
+        <v>0.06079066217562556</v>
+      </c>
+      <c r="F90">
+        <v>-0.05526506001084069</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.2017930849108933</v>
+        <v>0.1891910995321133</v>
       </c>
       <c r="C91">
-        <v>-0.1166190543281562</v>
+        <v>0.1416973403170163</v>
       </c>
       <c r="D91">
-        <v>-0.06555909430591557</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.102948916767657</v>
+      </c>
+      <c r="E91">
+        <v>0.07295853491461034</v>
+      </c>
+      <c r="F91">
+        <v>-0.04773165335790618</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1680504662579385</v>
+        <v>0.1871377997634594</v>
       </c>
       <c r="C92">
-        <v>0.2815773818198876</v>
+        <v>-0.2736643979103773</v>
       </c>
       <c r="D92">
-        <v>-0.01537182125352946</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.009671295988548932</v>
+      </c>
+      <c r="E92">
+        <v>0.06829706379467827</v>
+      </c>
+      <c r="F92">
+        <v>-0.07484602965393278</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1972129317108707</v>
+        <v>0.2292077547695626</v>
       </c>
       <c r="C93">
-        <v>0.3420733461567513</v>
+        <v>-0.3145238822630262</v>
       </c>
       <c r="D93">
-        <v>0.01029328632478563</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.002932065502292522</v>
+      </c>
+      <c r="E93">
+        <v>0.04839087092719438</v>
+      </c>
+      <c r="F93">
+        <v>-0.04316148536642512</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.2897283899296392</v>
+        <v>0.339524414785837</v>
       </c>
       <c r="C94">
-        <v>-0.1585982807281547</v>
+        <v>0.1999543607832037</v>
       </c>
       <c r="D94">
-        <v>-0.1150249287374918</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4690710498963582</v>
+      </c>
+      <c r="E94">
+        <v>0.1718321675658495</v>
+      </c>
+      <c r="F94">
+        <v>0.4337959748430864</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.09678906999929673</v>
+        <v>0.08178498503104953</v>
       </c>
       <c r="C95">
-        <v>-0.07278060923819346</v>
+        <v>0.07609575844852445</v>
       </c>
       <c r="D95">
-        <v>0.04659120696705511</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1519619758213734</v>
+      </c>
+      <c r="E95">
+        <v>-0.1329002313271004</v>
+      </c>
+      <c r="F95">
+        <v>-0.215670226146751</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2053270791744013</v>
+        <v>0.1879015318076726</v>
       </c>
       <c r="C98">
-        <v>-0.01946614908584642</v>
+        <v>0.0424832748688045</v>
       </c>
       <c r="D98">
-        <v>0.0357924921723449</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1759494475449191</v>
+      </c>
+      <c r="E98">
+        <v>-0.1546305641341649</v>
+      </c>
+      <c r="F98">
+        <v>0.0470912031635267</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.0125331957414145</v>
+        <v>0.006136720069828068</v>
       </c>
       <c r="C101">
-        <v>-0.02455232811370544</v>
+        <v>0.02505548391031326</v>
       </c>
       <c r="D101">
-        <v>-0.01154496846623823</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02035377706213169</v>
+      </c>
+      <c r="E101">
+        <v>0.02778422005339603</v>
+      </c>
+      <c r="F101">
+        <v>-0.08715454807270752</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1194121452056712</v>
+        <v>0.1214640796655212</v>
       </c>
       <c r="C102">
-        <v>-0.07680093615357644</v>
+        <v>0.1021029737874541</v>
       </c>
       <c r="D102">
-        <v>-0.04891820758614862</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05061835308075202</v>
+      </c>
+      <c r="E102">
+        <v>-0.01071822648599936</v>
+      </c>
+      <c r="F102">
+        <v>-0.04049269931672421</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
